--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Projects\Birthday Wisher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EBF0B9-B9C2-486F-A128-FC28592A00BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F7BC3-7439-440D-BBDC-138B29A6C807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -36,25 +36,58 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Anish</t>
   </si>
   <si>
-    <t>anish.dhandore@gmail.com</t>
-  </si>
-  <si>
     <t>Prajay</t>
   </si>
   <si>
     <t>Sitanshu</t>
   </si>
   <si>
-    <t>prajay2002@gmail.com</t>
-  </si>
-  <si>
-    <t>chhedasitanshu89@gmail.com</t>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Sambhav</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>ron@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisxyz@gmail.com</t>
+  </si>
+  <si>
+    <t>hen@gmail.com</t>
+  </si>
+  <si>
+    <t>man@gmail.com</t>
+  </si>
+  <si>
+    <t>spidey@gmail.com</t>
+  </si>
+  <si>
+    <t>shaq2002@gmail.com</t>
+  </si>
+  <si>
+    <t>tanshu89@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -384,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,7 +431,7 @@
     <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,50 +441,104 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>37386</v>
       </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>37535</v>
       </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>37574</v>
       </c>
-      <c r="D4">
-        <v>18</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>37195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>37428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>37402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>37280</v>
       </c>
     </row>
   </sheetData>
@@ -459,6 +546,12 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{99A16632-6049-4B95-B4C0-E836203D7E5B}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{5A910ADB-F644-4B71-A511-72685DA7FA43}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{31DA8E10-1740-49B6-B147-58B938C7BE27}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{B5A1A71C-1848-426C-8093-31CFD64B03E9}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{93B9AB8B-8FA2-4B27-8CC2-AE87BDDA4B27}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{0D5E33A1-7056-46B6-8E3E-0377E06366D7}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{F41F54FC-52E8-4470-915F-53E58DF20ADB}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{8A9596E6-E78C-4628-8E1C-35EBF212A73B}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{4875CA0C-994B-4692-A8A6-B0A6453A42FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
